--- a/config/newcoder.xlsx
+++ b/config/newcoder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24790\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Liupo\project\OJtool\vjChecker\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28221364-95C1-4C21-9960-18732205D29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70295784-7CE5-4FC6-BE1F-16D501034FA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="1815" windowWidth="20580" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <rPr>
@@ -45,634 +45,6 @@
       </rPr>
       <t>牛客用户名</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓝宗慰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神之六魄</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李浩然</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>The__Flash</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李瑞琪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LR123123</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奚文涓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18XiWenjuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王祥男</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visiter19(wangxiangnan)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>马国华</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>many︿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔浩冉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019konghaoran</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商累浩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19shangleihao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄琪瑶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>韩瑶瑶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深山一口井_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秦鹏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此纪念金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>程恩浩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19chengenhao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刘文卓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoGic123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张立坤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>许世豪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丨暗夜丶大主教丨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>侯宛辰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wanwaner</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>熊淑贤</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019xiongshuxian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王玉莹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lichang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纪毅</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小毅儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李亚君</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19李亚君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨煜琦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwerbang(yyq)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查程曦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连泰杰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2019liantaijie</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姬彬荃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小白哎（）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>邓博</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Moveyourbody</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姜晶晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19jiangjingjing</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孙海燕</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隋龙宇</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆明燃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈子龙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良良枫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王欣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>闫明富</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝伦i独舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宋奕豪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂殇邪龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李荣奥</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__GHOST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孤单•光量子(19zhanglikun)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mo_Cheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯沁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,18 +451,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="25" width="12.8984375" customWidth="1"/>
+    <col min="3" max="25" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,13 +493,9 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:25" ht="16.5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1152,13 +520,9 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:25" ht="16.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1183,13 +547,9 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="1:25" ht="16.5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1214,13 +574,9 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:25" ht="16.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1245,13 +601,9 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="6" spans="1:25" ht="16.5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1276,13 +628,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:25" ht="16.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1307,13 +655,9 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="8" spans="1:25" ht="16.5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1338,13 +682,9 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:25" ht="16.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1369,13 +709,9 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4">
-        <v>32402</v>
-      </c>
+    <row r="10" spans="1:25" ht="16.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1400,13 +736,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="11" spans="1:25" ht="16.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1431,13 +763,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="12" spans="1:25" ht="16.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1462,13 +790,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="13" spans="1:25" ht="16.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1493,13 +817,9 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="1:25" ht="16.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1524,13 +844,9 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
+    <row r="15" spans="1:25" ht="16.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1555,13 +871,9 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="16" spans="1:25" ht="16.5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1586,13 +898,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="17" spans="1:25" ht="16.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1617,13 +925,9 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
+    <row r="18" spans="1:25" ht="16.5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1648,13 +952,9 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="19" spans="1:25" ht="16.5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1679,13 +979,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="20" spans="1:25" ht="16.5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1710,13 +1006,9 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="21" spans="1:25" ht="16.5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1741,13 +1033,9 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
+    <row r="22" spans="1:25" ht="16.5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1772,13 +1060,9 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
+    <row r="23" spans="1:25" ht="16.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1803,13 +1087,9 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
+    <row r="24" spans="1:25" ht="16.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1834,13 +1114,9 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
+    <row r="25" spans="1:25" ht="16.5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1865,13 +1141,9 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="26" spans="1:25" ht="16.5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1896,13 +1168,9 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="27" spans="1:25" ht="16.5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1927,13 +1195,9 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row r="28" spans="1:25" ht="16.5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1958,13 +1222,9 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
+    <row r="29" spans="1:25" ht="16.5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1989,13 +1249,9 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
+    <row r="30" spans="1:25" ht="16.5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2020,13 +1276,9 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>66</v>
-      </c>
+    <row r="31" spans="1:25" ht="16.5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2051,13 +1303,9 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
+    <row r="32" spans="1:25" ht="16.5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2082,13 +1330,9 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
+    <row r="33" spans="1:25" ht="16.5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2113,13 +1357,9 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25">
-      <c r="A34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
+    <row r="34" spans="1:25" ht="16.5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2144,7 +1384,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" ht="16.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2171,7 +1411,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" ht="16.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2198,7 +1438,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" ht="16.5">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2225,7 +1465,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" ht="16.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2252,7 +1492,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" ht="16.5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2279,7 +1519,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2306,7 +1546,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2333,7 +1573,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2360,7 +1600,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" ht="16.5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2387,7 +1627,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" ht="16.5">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2414,7 +1654,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" ht="16.5">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2441,7 +1681,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" ht="16.5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2468,7 +1708,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" ht="16.5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2495,7 +1735,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" ht="16.5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2522,7 +1762,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" ht="16.5">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2549,7 +1789,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" ht="16.5">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2576,7 +1816,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" ht="16.5">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2603,7 +1843,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" ht="16.5">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2630,7 +1870,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" ht="16.5">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2657,7 +1897,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" ht="16.5">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2684,7 +1924,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" ht="16.5">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2711,7 +1951,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" ht="16.5">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2738,7 +1978,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" ht="16.5">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2765,7 +2005,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" ht="16.5">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2792,7 +2032,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" ht="16.5">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2819,7 +2059,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" ht="16.5">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2846,7 +2086,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" ht="16.5">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2873,7 +2113,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" ht="16.5">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2900,7 +2140,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" ht="16.5">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2927,7 +2167,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" ht="16.5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2954,7 +2194,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" ht="16.5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2981,7 +2221,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" ht="16.5">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3008,7 +2248,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" ht="16.5">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3035,7 +2275,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" ht="16.5">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3062,7 +2302,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" ht="16.5">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3089,7 +2329,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" ht="16.5">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3116,7 +2356,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" ht="16.5">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3143,7 +2383,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" ht="16.5">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -3170,7 +2410,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" ht="16.5">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -3197,7 +2437,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" ht="16.5">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -3224,7 +2464,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" ht="16.5">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3251,7 +2491,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" ht="16.5">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3278,7 +2518,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" ht="16.5">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3305,7 +2545,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" ht="16.5">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3332,7 +2572,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" ht="16.5">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3359,7 +2599,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" ht="16.5">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3386,7 +2626,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" ht="16.5">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -3413,7 +2653,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" ht="16.5">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -3440,7 +2680,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" ht="16.5">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -3467,7 +2707,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" ht="16.5">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3494,7 +2734,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" ht="16.5">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3521,7 +2761,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" ht="16.5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3548,7 +2788,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" ht="16.5">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3575,7 +2815,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" ht="16.5">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3602,7 +2842,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" ht="16.5">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3629,7 +2869,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" ht="16.5">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3656,7 +2896,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" ht="16.5">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3683,7 +2923,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" ht="16.5">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3710,7 +2950,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25">
+    <row r="93" spans="1:25" ht="16.5">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3737,7 +2977,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25">
+    <row r="94" spans="1:25" ht="16.5">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3764,7 +3004,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" ht="16.5">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3791,7 +3031,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" ht="16.5">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3818,7 +3058,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25">
+    <row r="97" spans="1:25" ht="16.5">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3845,7 +3085,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25">
+    <row r="98" spans="1:25" ht="16.5">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3872,7 +3112,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25">
+    <row r="99" spans="1:25" ht="16.5">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3899,7 +3139,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="1:25">
+    <row r="100" spans="1:25" ht="16.5">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3926,7 +3166,7 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:25">
+    <row r="101" spans="1:25" ht="16.5">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3953,7 +3193,7 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25">
+    <row r="102" spans="1:25" ht="16.5">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3980,7 +3220,7 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:25">
+    <row r="103" spans="1:25" ht="16.5">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4007,7 +3247,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25">
+    <row r="104" spans="1:25" ht="16.5">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4034,7 +3274,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:25">
+    <row r="105" spans="1:25" ht="16.5">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4061,7 +3301,7 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="1:25">
+    <row r="106" spans="1:25" ht="16.5">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4088,7 +3328,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:25">
+    <row r="107" spans="1:25" ht="16.5">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4115,7 +3355,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:25" ht="16.5">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4142,7 +3382,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:25" ht="16.5">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4169,7 +3409,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:25" ht="16.5">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4196,7 +3436,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:25" ht="16.5">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4223,7 +3463,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:25" ht="16.5">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4250,7 +3490,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" ht="16.5">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4277,7 +3517,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" ht="16.5">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4304,7 +3544,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" ht="16.5">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4331,7 +3571,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" ht="16.5">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4358,7 +3598,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" ht="16.5">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4385,7 +3625,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" ht="16.5">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4412,7 +3652,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" ht="16.5">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4439,7 +3679,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" ht="16.5">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4466,7 +3706,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" ht="16.5">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4493,7 +3733,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" ht="16.5">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4520,7 +3760,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" ht="16.5">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4547,7 +3787,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" ht="16.5">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4574,7 +3814,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" ht="16.5">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4601,7 +3841,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" ht="16.5">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4628,7 +3868,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" ht="16.5">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4655,7 +3895,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" ht="16.5">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4682,7 +3922,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25">
+    <row r="129" spans="1:25" ht="16.5">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4709,7 +3949,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:25" ht="16.5">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4736,7 +3976,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25">
+    <row r="131" spans="1:25" ht="16.5">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4763,7 +4003,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="1:25">
+    <row r="132" spans="1:25" ht="16.5">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4790,7 +4030,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="1:25">
+    <row r="133" spans="1:25" ht="16.5">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4817,7 +4057,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:25">
+    <row r="134" spans="1:25" ht="16.5">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4844,7 +4084,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25">
+    <row r="135" spans="1:25" ht="16.5">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4871,7 +4111,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25">
+    <row r="136" spans="1:25" ht="16.5">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4898,7 +4138,7 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
     </row>
-    <row r="137" spans="1:25">
+    <row r="137" spans="1:25" ht="16.5">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4925,7 +4165,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25">
+    <row r="138" spans="1:25" ht="16.5">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4952,7 +4192,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="1:25">
+    <row r="139" spans="1:25" ht="16.5">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4979,7 +4219,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" spans="1:25">
+    <row r="140" spans="1:25" ht="16.5">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5006,7 +4246,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" spans="1:25">
+    <row r="141" spans="1:25" ht="16.5">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5033,7 +4273,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="1:25">
+    <row r="142" spans="1:25" ht="16.5">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5060,7 +4300,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" spans="1:25">
+    <row r="143" spans="1:25" ht="16.5">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5087,7 +4327,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" spans="1:25">
+    <row r="144" spans="1:25" ht="16.5">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5114,7 +4354,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" spans="1:25">
+    <row r="145" spans="1:25" ht="16.5">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5141,7 +4381,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" spans="1:25">
+    <row r="146" spans="1:25" ht="16.5">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5168,7 +4408,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" spans="1:25">
+    <row r="147" spans="1:25" ht="16.5">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5195,7 +4435,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" spans="1:25">
+    <row r="148" spans="1:25" ht="16.5">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5222,7 +4462,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" spans="1:25">
+    <row r="149" spans="1:25" ht="16.5">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5249,7 +4489,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" spans="1:25">
+    <row r="150" spans="1:25" ht="16.5">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5276,7 +4516,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" spans="1:25">
+    <row r="151" spans="1:25" ht="16.5">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5303,7 +4543,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" spans="1:25">
+    <row r="152" spans="1:25" ht="16.5">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5330,7 +4570,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" spans="1:25">
+    <row r="153" spans="1:25" ht="16.5">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5357,7 +4597,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" spans="1:25">
+    <row r="154" spans="1:25" ht="16.5">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5384,7 +4624,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" spans="1:25">
+    <row r="155" spans="1:25" ht="16.5">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5411,7 +4651,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" spans="1:25">
+    <row r="156" spans="1:25" ht="16.5">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5438,7 +4678,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" spans="1:25">
+    <row r="157" spans="1:25" ht="16.5">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5465,7 +4705,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" spans="1:25">
+    <row r="158" spans="1:25" ht="16.5">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5492,7 +4732,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" spans="1:25">
+    <row r="159" spans="1:25" ht="16.5">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5519,7 +4759,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" spans="1:25">
+    <row r="160" spans="1:25" ht="16.5">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5546,7 +4786,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" ht="16.5">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5573,7 +4813,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" spans="1:25">
+    <row r="162" spans="1:25" ht="16.5">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5600,7 +4840,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" spans="1:25">
+    <row r="163" spans="1:25" ht="16.5">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5627,7 +4867,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" spans="1:25">
+    <row r="164" spans="1:25" ht="16.5">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5654,7 +4894,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" spans="1:25">
+    <row r="165" spans="1:25" ht="16.5">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5681,7 +4921,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" spans="1:25">
+    <row r="166" spans="1:25" ht="16.5">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5708,7 +4948,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" spans="1:25">
+    <row r="167" spans="1:25" ht="16.5">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5735,7 +4975,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" spans="1:25">
+    <row r="168" spans="1:25" ht="16.5">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5762,7 +5002,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" spans="1:25">
+    <row r="169" spans="1:25" ht="16.5">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5789,7 +5029,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" spans="1:25">
+    <row r="170" spans="1:25" ht="16.5">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5816,7 +5056,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" spans="1:25">
+    <row r="171" spans="1:25" ht="16.5">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5843,7 +5083,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" spans="1:25">
+    <row r="172" spans="1:25" ht="16.5">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5870,7 +5110,7 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
     </row>
-    <row r="173" spans="1:25">
+    <row r="173" spans="1:25" ht="16.5">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5897,7 +5137,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" spans="1:25">
+    <row r="174" spans="1:25" ht="16.5">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5924,7 +5164,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" spans="1:25">
+    <row r="175" spans="1:25" ht="16.5">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5951,7 +5191,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" spans="1:25">
+    <row r="176" spans="1:25" ht="16.5">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5978,7 +5218,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" spans="1:25">
+    <row r="177" spans="1:25" ht="16.5">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -6005,7 +5245,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" spans="1:25">
+    <row r="178" spans="1:25" ht="16.5">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -6032,7 +5272,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" spans="1:25">
+    <row r="179" spans="1:25" ht="16.5">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -6059,7 +5299,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" spans="1:25">
+    <row r="180" spans="1:25" ht="16.5">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -6086,7 +5326,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" spans="1:25">
+    <row r="181" spans="1:25" ht="16.5">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -6113,7 +5353,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" spans="1:25">
+    <row r="182" spans="1:25" ht="16.5">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -6140,7 +5380,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" spans="1:25">
+    <row r="183" spans="1:25" ht="16.5">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -6167,7 +5407,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" spans="1:25">
+    <row r="184" spans="1:25" ht="16.5">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -6194,7 +5434,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" spans="1:25">
+    <row r="185" spans="1:25" ht="16.5">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -6221,7 +5461,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" spans="1:25">
+    <row r="186" spans="1:25" ht="16.5">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -6248,7 +5488,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" spans="1:25">
+    <row r="187" spans="1:25" ht="16.5">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -6275,7 +5515,7 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
     </row>
-    <row r="188" spans="1:25">
+    <row r="188" spans="1:25" ht="16.5">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -6302,7 +5542,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" spans="1:25">
+    <row r="189" spans="1:25" ht="16.5">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -6329,7 +5569,7 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" spans="1:25">
+    <row r="190" spans="1:25" ht="16.5">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -6356,7 +5596,7 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" spans="1:25">
+    <row r="191" spans="1:25" ht="16.5">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -6383,7 +5623,7 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" spans="1:25">
+    <row r="192" spans="1:25" ht="16.5">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -6410,7 +5650,7 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" spans="1:25">
+    <row r="193" spans="1:25" ht="16.5">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -6437,7 +5677,7 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" spans="1:25">
+    <row r="194" spans="1:25" ht="16.5">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -6464,7 +5704,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" spans="1:25">
+    <row r="195" spans="1:25" ht="16.5">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -6491,7 +5731,7 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" spans="1:25">
+    <row r="196" spans="1:25" ht="16.5">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -6518,7 +5758,7 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="197" spans="1:25">
+    <row r="197" spans="1:25" ht="16.5">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
